--- a/Itho Data Labels.xlsx
+++ b/Itho Data Labels.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Dropbox\Projects\IthoServiceTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\proj1\itho-esp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9C1A11-D050-4547-8114-2E4B2B31B7F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D7CC8-946A-4A57-B171-CBF1A6DB0403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{C3D9DC2E-C95F-4A72-82FC-0D25F1CC24BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3D9DC2E-C95F-4A72-82FC-0D25F1CC24BF}"/>
   </bookViews>
   <sheets>
     <sheet name="HRU" sheetId="1" r:id="rId1"/>
     <sheet name="ketel" sheetId="2" r:id="rId2"/>
     <sheet name="L-B" sheetId="3" r:id="rId3"/>
     <sheet name="CZB" sheetId="4" r:id="rId4"/>
-    <sheet name="luchtgordijn" sheetId="5" r:id="rId5"/>
-    <sheet name="Ext Ext+" sheetId="6" r:id="rId6"/>
-    <sheet name="demandflow" sheetId="7" r:id="rId7"/>
-    <sheet name="CAS-ECO fan" sheetId="8" r:id="rId8"/>
-    <sheet name="GGBB" sheetId="9" r:id="rId9"/>
-    <sheet name="GECO2" sheetId="10" r:id="rId10"/>
-    <sheet name="areaflow" sheetId="12" r:id="rId11"/>
-    <sheet name="BRR" sheetId="13" r:id="rId12"/>
-    <sheet name="BRV" sheetId="14" r:id="rId13"/>
-    <sheet name="OLB" sheetId="15" r:id="rId14"/>
-    <sheet name="Vboily" sheetId="16" r:id="rId15"/>
-    <sheet name="voorverwarmer" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId5"/>
+    <sheet name="luchtgordijn" sheetId="5" r:id="rId6"/>
+    <sheet name="Ext Ext+" sheetId="6" r:id="rId7"/>
+    <sheet name="demandflow" sheetId="7" r:id="rId8"/>
+    <sheet name="CAS-ECO fan" sheetId="8" r:id="rId9"/>
+    <sheet name="GGBB" sheetId="9" r:id="rId10"/>
+    <sheet name="GECO2" sheetId="10" r:id="rId11"/>
+    <sheet name="areaflow" sheetId="12" r:id="rId12"/>
+    <sheet name="BRR" sheetId="13" r:id="rId13"/>
+    <sheet name="BRV" sheetId="14" r:id="rId14"/>
+    <sheet name="OLB" sheetId="15" r:id="rId15"/>
+    <sheet name="Vboily" sheetId="16" r:id="rId16"/>
+    <sheet name="voorverwarmer" sheetId="17" r:id="rId17"/>
+    <sheet name="Silent" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="697">
   <si>
     <t>Min</t>
   </si>
@@ -2049,6 +2051,93 @@
   </si>
   <si>
     <t>Droogkook fase 2 teller</t>
+  </si>
+  <si>
+    <t>Ventilatie setpoint</t>
+  </si>
+  <si>
+    <t>0% = min. ventilatie stand 100% = max. ventilatie stand</t>
+  </si>
+  <si>
+    <t>Gevraagde ventilator toerental</t>
+  </si>
+  <si>
+    <t>Gemeten ventilator toerental</t>
+  </si>
+  <si>
+    <t>B_M_Storingen</t>
+  </si>
+  <si>
+    <t>L_M_Selectie_V21</t>
+  </si>
+  <si>
+    <t>Aantal maal opgestart</t>
+  </si>
+  <si>
+    <t>lbl_AwayTimer</t>
+  </si>
+  <si>
+    <t>Afwezigheid</t>
+  </si>
+  <si>
+    <t>lbl_CO2</t>
+  </si>
+  <si>
+    <t>Hoogste CO2 concentratie</t>
+  </si>
+  <si>
+    <t>Hoogste gemeten CO2 concentratie sensor</t>
+  </si>
+  <si>
+    <t>lbl_hRFspeedLevel</t>
+  </si>
+  <si>
+    <t>Hoogste RV concentratie</t>
+  </si>
+  <si>
+    <t>Hoogste gemeten concentratie rel. luchtvochtigheid</t>
+  </si>
+  <si>
+    <t>lbl_RelativeHumidity</t>
+  </si>
+  <si>
+    <t>Relatieve vochtigheid menglucht</t>
+  </si>
+  <si>
+    <t>0-100 % mapped at 300 max speed</t>
+  </si>
+  <si>
+    <t>lbl_Temperature</t>
+  </si>
+  <si>
+    <t>Temperatuur menglucht</t>
+  </si>
+  <si>
+    <t>Uit</t>
+  </si>
+  <si>
+    <t>Vakantie</t>
+  </si>
+  <si>
+    <t>Laag</t>
+  </si>
+  <si>
+    <t>Nominaal</t>
+  </si>
+  <si>
+    <t>Hoog</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Afzuigkap</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Auto nacht</t>
   </si>
 </sst>
 </file>
@@ -2067,11 +2156,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2555,7 +2646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC19CA91-42D1-4296-BCC2-4B18B9FEB74D}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3439,6 +3530,283 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5E47CA-B0EA-4C3C-9E0D-6520D50A578B}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>9</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>10</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>11</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE649DD-DDD4-41D6-B5E3-6F58E6A03FBE}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3596,7 +3964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7862331F-083D-4941-8BC4-61D7DDDCC7B6}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -3733,14 +4101,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F23E9-D839-445A-90C2-3F14587A7027}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -4099,14 +4467,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:H13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8990A49-F01F-4923-B75D-9668FF8272F1}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4413,14 +4781,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:M17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:M17">
     <sortCondition ref="A1:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8C6D26-28EF-4004-BACD-DF39D9A6B61E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -4664,7 +5032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B491D2E-692C-40D6-819D-E8822B8FDE6E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -4922,7 +5290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B5975-0FEB-4CA5-A2B8-D6BFDE0D989B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -5346,10 +5714,289 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDADBD2D-CCFF-41E5-95D7-7F9A3BE56B4E}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D10" t="s">
+        <v>682</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>683</v>
+      </c>
+      <c r="C11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>686</v>
+      </c>
+      <c r="C12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6124,7 +6771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E626F073-74E4-437C-991A-6B7AB2F3567B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -6545,7 +7192,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6553,6 +7200,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DD07EE-8B8E-4265-8D46-867399E32EEC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69364959-EB2A-48D3-B341-A661E515AB1A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -6722,14 +7381,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E9">
     <sortCondition ref="A1:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2CC33C-DE77-4304-BD2D-F3447FDB6200}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -7016,7 +7675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F58EE9-0B20-4800-A06F-60EAB9AB308B}">
   <dimension ref="A1:F72"/>
   <sheetViews>
@@ -8479,7 +9138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070C1A2-0035-464D-9EE1-EE130F64E0A3}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -8729,281 +9388,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5E47CA-B0EA-4C3C-9E0D-6520D50A578B}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="35.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>3</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>4</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>6</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>7</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>8</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>9</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>10</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>11</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>12</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>13</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>14</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>15</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>